--- a/src/experiment/results/wilcoxon/colon/original/MILP1_auc_folds.xlsx
+++ b/src/experiment/results/wilcoxon/colon/original/MILP1_auc_folds.xlsx
@@ -495,13 +495,13 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6500000000000001</v>
+        <v>0.575</v>
       </c>
       <c r="F2" t="n">
         <v>0.125</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -527,13 +527,13 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9375</v>
+        <v>0.9</v>
       </c>
       <c r="F3" t="n">
         <v>0.125</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -559,13 +559,13 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
       <c r="F4" t="n">
         <v>0.125</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -591,13 +591,13 @@
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="F5" t="n">
         <v>0.125</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -623,13 +623,13 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="F6" t="n">
         <v>0.125</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
